--- a/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
+++ b/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ISIL-EMP-SQL-SERVER-01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36480E9E-A6DF-458A-8DE1-156475E93D57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia y Notas" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>N°</t>
   </si>
@@ -256,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -675,7 +674,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cancel" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Cancel" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -741,13 +740,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>837</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>199816</xdr:rowOff>
+          <xdr:rowOff>180766</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>829512</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>32552</xdr:rowOff>
+          <xdr:rowOff>13502</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -963,23 +962,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1015,23 +997,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,14 +1172,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1505,9 @@
       <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1571,7 +1538,9 @@
       <c r="C13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1602,7 +1571,9 @@
       <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1633,7 +1604,9 @@
       <c r="C15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1660,7 +1633,9 @@
       <c r="C16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1691,7 +1666,9 @@
       <c r="C17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1718,7 +1695,9 @@
       <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1745,7 +1724,9 @@
       <c r="C19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1772,7 +1753,9 @@
       <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1799,7 +1782,9 @@
       <c r="C21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1826,7 +1811,9 @@
       <c r="C22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1853,7 +1840,9 @@
       <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1880,7 +1869,9 @@
       <c r="C24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1907,7 +1898,9 @@
       <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1934,7 +1927,9 @@
       <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1961,7 +1956,9 @@
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1988,7 +1985,7 @@
       </c>
       <c r="D29" s="29">
         <f>COUNTIF(D12:D27,"P")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="29">
         <f>COUNTIF(E12:E27,"P")</f>
@@ -2019,7 +2016,7 @@
       </c>
       <c r="D30" s="29">
         <f>COUNTIF(D12:D27,"F")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="29">
         <f>COUNTIF(E12:E27,"F")</f>
@@ -2173,7 +2170,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1028" r:id="rId4" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -2204,13 +2201,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
+++ b/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Asistencia y Notas'!$A$11:$W$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>N°</t>
   </si>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -740,13 +740,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>837</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180766</xdr:rowOff>
+          <xdr:rowOff>171241</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>829512</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>13502</xdr:rowOff>
+          <xdr:rowOff>3977</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -756,7 +756,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,8 +793,8 @@
           <xdr:rowOff>124348</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>285855</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>284390</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>114091</xdr:rowOff>
         </xdr:to>
@@ -806,7 +806,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -851,7 +851,7 @@
         <xdr:cNvPr id="7" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,15 +1178,16 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="12" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="8.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
     <col min="14" max="15" width="17.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1508,7 +1509,9 @@
       <c r="D12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1607,7 +1610,9 @@
       <c r="D15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1930,7 +1935,9 @@
       <c r="D26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1989,7 +1996,7 @@
       </c>
       <c r="E29" s="29">
         <f>COUNTIF(E12:E27,"P")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -2169,8 +2176,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="Control 4">
+        <control shapeId="1027" r:id="rId4" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId4" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId6" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -2179,7 +2211,7 @@
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
@@ -2189,32 +2221,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="Control 3"/>
+        <control shapeId="1028" r:id="rId6" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
+++ b/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>N°</t>
   </si>
@@ -737,16 +737,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>837</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>171241</xdr:rowOff>
+          <xdr:rowOff>212148</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>829512</xdr:colOff>
+          <xdr:colOff>1007918</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>3977</xdr:rowOff>
+          <xdr:rowOff>87457</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -756,7 +756,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -787,16 +787,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1465</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2531918</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>124348</xdr:rowOff>
+          <xdr:rowOff>128155</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>284390</xdr:colOff>
+          <xdr:colOff>458932</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>114091</xdr:rowOff>
+          <xdr:rowOff>159327</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -806,7 +806,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -851,7 +851,7 @@
         <xdr:cNvPr id="7" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1641,7 +1641,9 @@
       <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1761,7 +1763,9 @@
       <c r="D20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1790,7 +1794,9 @@
       <c r="D21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -1966,7 +1972,9 @@
       <c r="D27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1996,7 +2004,7 @@
       </c>
       <c r="E29" s="29">
         <f>COUNTIF(E12:E27,"P")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -2176,52 +2184,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId4" name="Control 3">
+        <control shapeId="1028" r:id="rId4" name="Control 4">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId4" name="Control 3"/>
+        <control shapeId="1028" r:id="rId4" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId6" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+        <control shapeId="1027" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId6" name="Control 4"/>
+        <control shapeId="1027" r:id="rId6" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
+++ b/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ISIL-EMP-SQL-SERVER-01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\ISIL-EMP-SQL-SERVER-01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59B54C5E-107D-42BB-95D1-F539005E458A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia y Notas" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Asistencia y Notas'!$A$11:$W$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>N°</t>
   </si>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -674,7 +675,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cancel" xfId="1"/>
+    <cellStyle name="Cancel" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -739,14 +740,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>212148</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>33770</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1007918</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>87457</xdr:rowOff>
+          <xdr:rowOff>125557</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -756,7 +757,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +794,7 @@
           <xdr:rowOff>128155</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>458932</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>159327</xdr:rowOff>
@@ -806,7 +807,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -851,7 +852,7 @@
         <xdr:cNvPr id="7" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,6 +963,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -997,6 +1015,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1172,22 +1207,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="12" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="12" width="8.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
     <col min="14" max="15" width="17.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1544,7 +1578,9 @@
       <c r="D13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1577,7 +1613,9 @@
       <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1676,7 +1714,9 @@
       <c r="D17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1705,7 +1745,9 @@
       <c r="D18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -1734,7 +1776,9 @@
       <c r="D19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1825,7 +1869,9 @@
       <c r="D22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1854,7 +1900,9 @@
       <c r="D23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1883,7 +1931,9 @@
       <c r="D24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1912,7 +1962,9 @@
       <c r="D25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2035,7 +2087,7 @@
       </c>
       <c r="E30" s="29">
         <f>COUNTIF(E12:E27,"F")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -2184,8 +2236,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1027" r:id="rId4" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId4" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId6" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -2204,32 +2281,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1009650</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="Control 3"/>
+        <control shapeId="1028" r:id="rId6" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
+++ b/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\ISIL-EMP-SQL-SERVER-01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ISIL-EMP-SQL-SERVER-01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59B54C5E-107D-42BB-95D1-F539005E458A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia y Notas" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Asistencia y Notas'!$A$11:$W$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>N°</t>
   </si>
@@ -256,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -675,7 +674,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cancel" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Cancel" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -741,13 +740,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>33770</xdr:rowOff>
+          <xdr:rowOff>81395</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1007918</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>125557</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>17318</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -757,7 +756,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -788,14 +787,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>2531918</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>535132</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>128155</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>458932</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>464127</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>159327</xdr:rowOff>
         </xdr:to>
@@ -807,7 +806,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -852,7 +851,7 @@
         <xdr:cNvPr id="7" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,23 +962,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1015,23 +997,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,21 +1172,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="12" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="12" width="8.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
     <col min="14" max="15" width="17.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1546,7 +1512,9 @@
       <c r="E12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1581,7 +1549,9 @@
       <c r="E13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1616,7 +1586,9 @@
       <c r="E14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1651,7 +1623,9 @@
       <c r="E15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1682,7 +1656,9 @@
       <c r="E16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1717,7 +1693,9 @@
       <c r="E17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1748,7 +1726,9 @@
       <c r="E18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1779,7 +1759,9 @@
       <c r="E19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1810,7 +1792,9 @@
       <c r="E20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1841,7 +1825,9 @@
       <c r="E21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1872,7 +1858,9 @@
       <c r="E22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1903,7 +1891,9 @@
       <c r="E23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1934,7 +1924,9 @@
       <c r="E24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1965,7 +1957,9 @@
       <c r="E25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1996,7 +1990,9 @@
       <c r="E26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2027,7 +2023,9 @@
       <c r="E27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -2058,7 +2056,10 @@
         <f>COUNTIF(E12:E27,"P")</f>
         <v>7</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <f>COUNTIF(F12:F27,"P")</f>
+        <v>14</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -2089,7 +2090,10 @@
         <f>COUNTIF(E12:E27,"F")</f>
         <v>9</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <f>COUNTIF(F12:F27,"F")</f>
+        <v>2</v>
+      </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
@@ -2236,43 +2240,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId4" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1028" r:id="rId4" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1009650</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId4" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId6" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
@@ -2281,7 +2260,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId6" name="Control 4"/>
+        <control shapeId="1028" r:id="rId4" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
+++ b/Docs/Asistencia y notas SQL Gustavo Coronel.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\ISIL-EMP-SQL-SERVER-01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ISIL\ISIL-EMP-SQL-SERVER-01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia y Notas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Asistencia y Notas'!$A$11:$W$11</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -678,7 +679,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -705,7 +728,12 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFFF99"/>
@@ -737,16 +765,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2078</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>81395</xdr:rowOff>
+          <xdr:rowOff>38793</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1007918</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>17318</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -756,7 +784,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -787,16 +815,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>535132</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3464</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>128155</xdr:rowOff>
+          <xdr:rowOff>97675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>464127</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>458586</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>159327</xdr:rowOff>
+          <xdr:rowOff>134389</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -806,7 +834,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -851,7 +879,7 @@
         <xdr:cNvPr id="7" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,22 +1207,21 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="12" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="12" width="8.109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="2"/>
+    <col min="19" max="19" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1272,7 +1299,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1297,7 +1324,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1349,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1414,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="12" x14ac:dyDescent="0.25">
       <c r="C9" s="47" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="23">
@@ -2040,7 +2067,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="12" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="12" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2149,7 @@
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
     </row>
-    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="31" t="s">
         <v>21</v>
       </c>
@@ -2137,7 +2164,7 @@
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
     </row>
-    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="31" t="s">
         <v>22</v>
       </c>
@@ -2152,7 +2179,7 @@
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
     </row>
-    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="24" t="s">
         <v>23</v>
       </c>
@@ -2167,7 +2194,7 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="37" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2209,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="32" t="s">
         <v>5</v>
       </c>
@@ -2214,22 +2241,22 @@
     <mergeCell ref="C9:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="R12:R27">
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:L27">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2240,52 +2267,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="Control 4">
+        <control shapeId="1027" r:id="rId4" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1005840</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="Control 4"/>
+        <control shapeId="1027" r:id="rId4" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="Control 3">
+        <control shapeId="1028" r:id="rId6" name="Control 4">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1009650</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="Control 3"/>
+        <control shapeId="1028" r:id="rId6" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
